--- a/Analysis/server0s5p/client0.1s/csr600d0.2.xlsx
+++ b/Analysis/server0s5p/client0.1s/csr600d0.2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="38">
   <si>
     <t>Topology</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>Graph: Latency between each device</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -3258,11 +3261,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="73347456"/>
-        <c:axId val="73349376"/>
+        <c:axId val="125811328"/>
+        <c:axId val="125821312"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="73347456"/>
+        <c:axId val="125811328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3275,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73349376"/>
+        <c:crossAx val="125821312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3280,7 +3283,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="73349376"/>
+        <c:axId val="125821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3291,7 +3294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="73347456"/>
+        <c:crossAx val="125811328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3639,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:UW104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="I104" sqref="I104"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82:E82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29743,6 +29746,13 @@
       <c r="A82" t="s">
         <v>24</v>
       </c>
+      <c r="D82" t="s">
+        <v>37</v>
+      </c>
+      <c r="E82">
+        <f>AVERAGE(83:85)</f>
+        <v>1078.5757042253522</v>
+      </c>
     </row>
     <row r="83" spans="1:569" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
@@ -40562,7 +40572,7 @@
         <v>2429</v>
       </c>
       <c r="UW88">
-        <f t="shared" ref="UW88:UY88" si="978">UV47-UV18</f>
+        <f t="shared" ref="UW88" si="978">UV47-UV18</f>
         <v>173</v>
       </c>
     </row>
@@ -42839,7 +42849,7 @@
         <v>4670</v>
       </c>
       <c r="UW89">
-        <f t="shared" ref="UW89:UY89" si="1222">UV74-UV18</f>
+        <f t="shared" ref="UW89" si="1222">UV74-UV18</f>
         <v>621</v>
       </c>
     </row>
@@ -45116,7 +45126,7 @@
         <v>1567</v>
       </c>
       <c r="UW90">
-        <f t="shared" ref="UW90:UY90" si="1466">UV22-UV45</f>
+        <f t="shared" ref="UW90" si="1466">UV22-UV45</f>
         <v>-85</v>
       </c>
     </row>
@@ -47393,7 +47403,7 @@
         <v>3865</v>
       </c>
       <c r="UW91">
-        <f t="shared" ref="UW91:UY91" si="1710">UV76-UV45</f>
+        <f t="shared" ref="UW91" si="1710">UV76-UV45</f>
         <v>14</v>
       </c>
     </row>
@@ -49670,7 +49680,7 @@
         <v>-111</v>
       </c>
       <c r="UW92">
-        <f t="shared" ref="UW92:UY92" si="1954">UV24-UV72</f>
+        <f t="shared" ref="UW92" si="1954">UV24-UV72</f>
         <v>908</v>
       </c>
     </row>
@@ -51947,7 +51957,7 @@
         <v>-1</v>
       </c>
       <c r="UW93">
-        <f t="shared" ref="UW93:UY93" si="2198">UV51-UV72</f>
+        <f t="shared" ref="UW93" si="2198">UV51-UV72</f>
         <v>1119</v>
       </c>
     </row>
@@ -52166,7 +52176,7 @@
         <v>433</v>
       </c>
       <c r="E97">
-        <f t="shared" ref="E97:BP97" si="2199">FREQUENCY($B88:$UW88, E$96)</f>
+        <f t="shared" ref="E97:BO97" si="2199">FREQUENCY($B88:$UW88, E$96)</f>
         <v>455</v>
       </c>
       <c r="F97">
@@ -52431,7 +52441,7 @@
         <v>422</v>
       </c>
       <c r="E98">
-        <f t="shared" ref="E98:BP98" si="2201">FREQUENCY($B89:$UW89, E$96)</f>
+        <f t="shared" ref="E98:BO98" si="2201">FREQUENCY($B89:$UW89, E$96)</f>
         <v>454</v>
       </c>
       <c r="F98">
@@ -52696,7 +52706,7 @@
         <v>363</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:BP99" si="2202">FREQUENCY($B90:$UW90, E$96)</f>
+        <f t="shared" ref="E99:BO99" si="2202">FREQUENCY($B90:$UW90, E$96)</f>
         <v>390</v>
       </c>
       <c r="F99">
@@ -52961,7 +52971,7 @@
         <v>421</v>
       </c>
       <c r="E100">
-        <f t="shared" ref="E100:BP100" si="2203">FREQUENCY($B91:$UW91, E$96)</f>
+        <f t="shared" ref="E100:BO100" si="2203">FREQUENCY($B91:$UW91, E$96)</f>
         <v>447</v>
       </c>
       <c r="F100">
@@ -53226,7 +53236,7 @@
         <v>377</v>
       </c>
       <c r="E101">
-        <f t="shared" ref="E101:BP101" si="2204">FREQUENCY($B92:$UW92, E$96)</f>
+        <f t="shared" ref="E101:BO101" si="2204">FREQUENCY($B92:$UW92, E$96)</f>
         <v>410</v>
       </c>
       <c r="F101">
@@ -53491,7 +53501,7 @@
         <v>430</v>
       </c>
       <c r="E102">
-        <f t="shared" ref="E102:BP102" si="2205">FREQUENCY($B93:$UW93, E$96)</f>
+        <f t="shared" ref="E102:BO102" si="2205">FREQUENCY($B93:$UW93, E$96)</f>
         <v>462</v>
       </c>
       <c r="F102">
